--- a/posesiones/1469951.xlsx
+++ b/posesiones/1469951.xlsx
@@ -1859,10 +1859,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2247,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>38</v>
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R12">
         <v>8</v>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2403,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R14">
         <v>21</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2503,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16">
         <v>5</v>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>20</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>11</v>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2759,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R21">
         <v>7</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R23">
         <v>16</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2965,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>10</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3115,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R28">
         <v>31</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3356,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R33">
         <v>5</v>
@@ -3409,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R34">
         <v>14</v>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3603,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R38">
         <v>20</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3706,7 +3706,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R40">
         <v>8</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R42">
         <v>25</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4003,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R46">
         <v>12</v>
@@ -4056,7 +4056,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R47">
         <v>19</v>
@@ -4109,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R48">
         <v>9</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4212,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R50">
         <v>16</v>
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R51">
         <v>15</v>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4462,7 +4462,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R55">
         <v>25</v>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4938,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R65">
         <v>18</v>
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5041,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R67">
         <v>21</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5141,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R69">
         <v>16</v>
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R70">
         <v>19</v>
@@ -5247,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5297,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R72">
         <v>15</v>
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5400,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R74">
         <v>9</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5691,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R80">
         <v>12</v>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5832,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5882,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R84">
         <v>19</v>
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5982,7 +5982,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R86">
         <v>15</v>
@@ -6035,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6085,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R88">
         <v>14</v>
@@ -6135,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6282,7 +6282,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R92">
         <v>12</v>
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6385,7 +6385,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R94">
         <v>7</v>
@@ -6435,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6485,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R96">
         <v>32</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6629,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R100">
         <v>21</v>
@@ -6732,7 +6732,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R101">
         <v>27</v>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6832,7 +6832,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R103">
         <v>7</v>
@@ -6876,10 +6876,10 @@
         <v>1</v>
       </c>
       <c r="P104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6920,10 +6920,10 @@
         <v>1</v>
       </c>
       <c r="P105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6970,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7158,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7255,7 +7255,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R112">
         <v>16</v>
@@ -7308,7 +7308,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R113">
         <v>11</v>
@@ -7361,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7411,7 +7411,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R115">
         <v>9</v>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7508,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7652,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7699,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7749,7 +7749,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R122">
         <v>32</v>
@@ -7799,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7896,7 +7896,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R125">
         <v>24</v>
@@ -7949,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7999,7 +7999,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R127">
         <v>16</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8102,7 +8102,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R129">
         <v>6</v>
@@ -8155,7 +8155,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R130">
         <v>10</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8258,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R132">
         <v>25</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8361,7 +8361,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R134">
         <v>9</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8505,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8646,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8740,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8834,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8881,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8931,7 +8931,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R146">
         <v>21</v>
@@ -8984,7 +8984,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9034,7 +9034,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R148">
         <v>9</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9134,7 +9134,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R150">
         <v>26</v>
@@ -9187,7 +9187,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R151">
         <v>31</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9290,7 +9290,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R153">
         <v>14</v>
@@ -9343,7 +9343,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9531,7 +9531,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9578,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9625,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9675,7 +9675,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R161">
         <v>24</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9769,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9819,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R164">
         <v>4</v>
@@ -9872,7 +9872,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R165">
         <v>22</v>
@@ -9922,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9972,7 +9972,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R167">
         <v>11</v>
@@ -10025,7 +10025,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R168">
         <v>18</v>
@@ -10078,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10128,7 +10128,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R170">
         <v>9</v>
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10228,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10275,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10325,7 +10325,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R174">
         <v>13</v>
@@ -10378,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10428,7 +10428,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R176">
         <v>23</v>
@@ -10478,7 +10478,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10528,7 +10528,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R178">
         <v>10</v>
@@ -10578,7 +10578,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10628,7 +10628,7 @@
         <v>1</v>
       </c>
       <c r="Q180">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R180">
         <v>15</v>
@@ -10678,7 +10678,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10728,7 +10728,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R182">
         <v>10</v>
@@ -10778,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10963,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11010,7 +11010,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11104,7 +11104,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11201,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R192">
         <v>16</v>
@@ -11254,7 +11254,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11304,7 +11304,7 @@
         <v>1</v>
       </c>
       <c r="Q194">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R194">
         <v>13</v>
@@ -11357,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11407,7 +11407,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R196">
         <v>5</v>
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11507,7 +11507,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R198">
         <v>8</v>
@@ -11560,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11610,7 +11610,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R200">
         <v>8</v>
@@ -11660,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11710,7 +11710,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R202">
         <v>20</v>
@@ -11760,7 +11760,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11854,7 +11854,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11901,7 +11901,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11948,7 +11948,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11998,7 +11998,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R208">
         <v>16</v>
@@ -12051,7 +12051,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12098,7 +12098,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12145,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12195,7 +12195,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R212">
         <v>23</v>
@@ -12248,7 +12248,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R213">
         <v>13</v>
@@ -12298,7 +12298,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12348,7 +12348,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12398,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R216">
         <v>7</v>
@@ -12451,7 +12451,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R217">
         <v>21</v>
@@ -12501,7 +12501,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12545,7 +12545,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12592,7 +12592,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12639,7 +12639,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12686,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12733,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12783,7 +12783,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R224">
         <v>22</v>
@@ -12836,7 +12836,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12886,7 +12886,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R226">
         <v>6</v>
@@ -12939,7 +12939,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12989,7 +12989,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R228">
         <v>4</v>
@@ -13033,10 +13033,10 @@
         <v>1</v>
       </c>
       <c r="P229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q229">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13130,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13177,7 +13177,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13224,7 +13224,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13265,10 +13265,10 @@
         <v>1</v>
       </c>
       <c r="P234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q234">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13315,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13365,7 +13365,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13415,7 +13415,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R237">
         <v>24</v>
@@ -13465,7 +13465,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13515,7 +13515,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R239">
         <v>15</v>
@@ -13568,7 +13568,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R240">
         <v>23</v>
@@ -13618,7 +13618,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13712,7 +13712,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13762,7 +13762,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R244">
         <v>18</v>
@@ -13815,7 +13815,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13865,7 +13865,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R246">
         <v>20</v>
@@ -13915,7 +13915,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13965,7 +13965,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R248">
         <v>15</v>
@@ -14018,7 +14018,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14068,7 +14068,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R250">
         <v>18</v>
@@ -14121,7 +14121,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14168,7 +14168,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14215,7 +14215,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14265,7 +14265,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R254">
         <v>11</v>
@@ -14315,7 +14315,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14362,7 +14362,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14412,7 +14412,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R257">
         <v>19</v>
@@ -14462,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14512,7 +14512,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R259">
         <v>16</v>
@@ -14565,7 +14565,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14615,7 +14615,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R261">
         <v>9</v>
@@ -14665,7 +14665,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14715,7 +14715,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14765,7 +14765,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R264">
         <v>7</v>
@@ -14815,7 +14815,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14865,7 +14865,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R266">
         <v>6</v>
@@ -14915,7 +14915,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14959,7 +14959,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15009,7 +15009,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R269">
         <v>16</v>
@@ -15059,7 +15059,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15106,7 +15106,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15153,7 +15153,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15200,7 +15200,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15247,7 +15247,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15294,7 +15294,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15347,7 +15347,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R276">
         <v>19</v>
@@ -15397,7 +15397,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15447,7 +15447,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R278">
         <v>14</v>
@@ -15500,7 +15500,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15550,7 +15550,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R280">
         <v>11</v>
@@ -15603,7 +15603,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R281">
         <v>11</v>
@@ -15656,7 +15656,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R282">
         <v>22</v>
@@ -15709,7 +15709,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15756,7 +15756,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15803,7 +15803,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15850,7 +15850,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15900,7 +15900,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R287">
         <v>22</v>
@@ -15950,7 +15950,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15997,7 +15997,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16044,7 +16044,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16091,7 +16091,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16141,7 +16141,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R292">
         <v>30</v>
@@ -16194,7 +16194,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16244,7 +16244,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R294">
         <v>10</v>
@@ -16297,7 +16297,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R295">
         <v>18</v>
@@ -16350,7 +16350,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16397,7 +16397,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16444,7 +16444,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16491,7 +16491,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16538,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16585,7 +16585,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16632,7 +16632,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16682,7 +16682,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R303">
         <v>7</v>
@@ -16735,7 +16735,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16782,7 +16782,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16835,7 +16835,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R306">
         <v>14</v>
@@ -16885,7 +16885,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16935,7 +16935,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R308">
         <v>17</v>
@@ -16988,7 +16988,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17038,7 +17038,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R310">
         <v>22</v>
@@ -17091,7 +17091,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R311">
         <v>11</v>
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17194,7 +17194,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R313">
         <v>13</v>
@@ -17247,7 +17247,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17297,7 +17297,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R315">
         <v>18</v>
@@ -17350,7 +17350,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R316">
         <v>23</v>
@@ -17400,7 +17400,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17447,7 +17447,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17494,7 +17494,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17591,7 +17591,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R321">
         <v>0</v>
@@ -17644,7 +17644,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R322">
         <v>20</v>
@@ -17694,7 +17694,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17744,7 +17744,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R324">
         <v>12</v>
@@ -17797,7 +17797,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R325">
         <v>14</v>
@@ -17850,7 +17850,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17900,7 +17900,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R327">
         <v>27</v>
@@ -17950,7 +17950,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17997,7 +17997,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18044,7 +18044,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18091,7 +18091,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18138,7 +18138,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18185,7 +18185,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18232,7 +18232,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18279,7 +18279,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18329,7 +18329,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18376,7 +18376,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18423,7 +18423,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18473,7 +18473,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R339">
         <v>-336</v>
@@ -18529,7 +18529,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R340">
         <v>0</v>
@@ -18573,10 +18573,10 @@
         <v>1</v>
       </c>
       <c r="P341" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q341">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18623,7 +18623,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18670,7 +18670,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18711,10 +18711,10 @@
         <v>1</v>
       </c>
       <c r="P344" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q344">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18761,7 +18761,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18808,7 +18808,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18855,7 +18855,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18902,7 +18902,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18949,7 +18949,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18999,7 +18999,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R350">
         <v>19</v>
@@ -19052,7 +19052,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R351">
         <v>20</v>
@@ -19105,7 +19105,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19155,7 +19155,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R353">
         <v>15</v>
@@ -19208,7 +19208,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19255,7 +19255,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19302,7 +19302,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19396,7 +19396,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19446,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19493,7 +19493,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19540,7 +19540,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19590,7 +19590,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R362">
         <v>36</v>
@@ -19643,7 +19643,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19693,7 +19693,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R364">
         <v>12</v>
@@ -19746,7 +19746,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19793,7 +19793,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19843,7 +19843,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19893,7 +19893,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R368">
         <v>12</v>
@@ -19946,7 +19946,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R369">
         <v>21</v>
@@ -19996,7 +19996,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20043,7 +20043,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20090,7 +20090,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20137,7 +20137,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20187,7 +20187,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R374">
         <v>22</v>
@@ -20237,7 +20237,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20287,7 +20287,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R376">
         <v>12</v>
@@ -20337,7 +20337,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20384,7 +20384,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20434,7 +20434,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20484,7 +20484,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R380">
         <v>24</v>
@@ -20534,7 +20534,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20581,7 +20581,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20631,7 +20631,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R383">
         <v>11</v>
@@ -20681,7 +20681,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20731,7 +20731,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R385">
         <v>20</v>
@@ -20784,7 +20784,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R386">
         <v>19</v>
@@ -20834,7 +20834,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20881,7 +20881,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20928,7 +20928,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20975,7 +20975,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21022,7 +21022,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21072,7 +21072,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R392">
         <v>34</v>
@@ -21125,7 +21125,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21175,7 +21175,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R394">
         <v>10</v>
@@ -21228,7 +21228,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21275,7 +21275,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21328,7 +21328,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R397">
         <v>16</v>
@@ -21378,7 +21378,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21425,7 +21425,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21472,7 +21472,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21519,7 +21519,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21566,7 +21566,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21613,7 +21613,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21660,7 +21660,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21710,7 +21710,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R405">
         <v>11</v>
@@ -21760,7 +21760,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21807,7 +21807,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21854,7 +21854,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21904,7 +21904,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R409">
         <v>0</v>
@@ -21957,7 +21957,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22007,7 +22007,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R411">
         <v>22</v>
@@ -22060,7 +22060,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R412">
         <v>14</v>
@@ -22113,7 +22113,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R413">
         <v>21</v>
@@ -22166,7 +22166,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22213,7 +22213,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22263,7 +22263,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22310,7 +22310,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22357,7 +22357,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22404,7 +22404,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22451,7 +22451,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22498,7 +22498,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22548,7 +22548,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R422">
         <v>20</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22648,7 +22648,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22695,7 +22695,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22742,7 +22742,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22789,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22839,7 +22839,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R428">
         <v>15</v>
@@ -22889,7 +22889,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22939,7 +22939,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R430">
         <v>18</v>
@@ -22992,7 +22992,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23039,7 +23039,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23086,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23133,7 +23133,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23183,7 +23183,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R435">
         <v>22</v>
@@ -23236,7 +23236,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R436">
         <v>11</v>
@@ -23286,7 +23286,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23333,7 +23333,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23383,7 +23383,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R439">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23477,7 +23477,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23524,7 +23524,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23571,7 +23571,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23618,7 +23618,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23715,7 +23715,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R446">
         <v>8</v>
@@ -23768,7 +23768,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23815,7 +23815,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23862,7 +23862,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23912,7 +23912,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R450">
         <v>15</v>
@@ -23962,7 +23962,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24012,7 +24012,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R452">
         <v>7</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24112,7 +24112,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24159,7 +24159,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24256,7 +24256,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R457">
         <v>26</v>
@@ -24303,7 +24303,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24353,7 +24353,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R459">
         <v>16</v>
@@ -24403,7 +24403,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24450,7 +24450,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24500,7 +24500,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R462">
         <v>0</v>
@@ -24553,7 +24553,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R463">
         <v>15</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24650,7 +24650,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24744,7 +24744,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24794,7 +24794,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R468">
         <v>1</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24935,7 +24935,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24985,7 +24985,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R472">
         <v>10</v>
@@ -25035,7 +25035,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25085,7 +25085,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R474">
         <v>16</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25188,7 +25188,7 @@
         <v>1</v>
       </c>
       <c r="Q476">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R476">
         <v>4</v>
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25285,7 +25285,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25376,7 +25376,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25423,7 +25423,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25470,7 +25470,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25567,7 +25567,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R484">
         <v>0</v>
@@ -25620,7 +25620,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R485">
         <v>24</v>
@@ -25667,7 +25667,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25714,7 +25714,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25761,7 +25761,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25811,7 +25811,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R489">
         <v>0</v>
@@ -25855,10 +25855,10 @@
         <v>1</v>
       </c>
       <c r="P490" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q490">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25899,7 +25899,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
